--- a/Examen 2do Bim/empleados-py.xlsx
+++ b/Examen 2do Bim/empleados-py.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIGUELESTEBAN\Documents\GitHub\py-alvarez-naranjo-miguel-esteban\Examen 2do Bim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA451C-CF47-42F8-BEFE-B9988BEAE328}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,8 +292,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,11 +356,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +442,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,6 +494,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,14 +687,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -681,7 +740,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -701,7 +760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -721,7 +780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -741,7 +800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -761,7 +820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -781,7 +840,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -801,7 +860,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -821,7 +880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -841,7 +900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -861,7 +920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -881,7 +940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -901,7 +960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -921,7 +980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -941,7 +1000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -961,7 +1020,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -981,7 +1040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
